--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.439664333333333</v>
+        <v>0.6240709999999999</v>
       </c>
       <c r="H2">
-        <v>19.318993</v>
+        <v>1.872213</v>
       </c>
       <c r="I2">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="J2">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>753.7276977616863</v>
+        <v>48.10933591615666</v>
       </c>
       <c r="R2">
-        <v>6783.549279855177</v>
+        <v>432.98402324541</v>
       </c>
       <c r="S2">
-        <v>0.2875875699114926</v>
+        <v>0.01901069203244398</v>
       </c>
       <c r="T2">
-        <v>0.2875875699114926</v>
+        <v>0.01901069203244398</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.439664333333333</v>
+        <v>0.6240709999999999</v>
       </c>
       <c r="H3">
-        <v>19.318993</v>
+        <v>1.872213</v>
       </c>
       <c r="I3">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="J3">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>654.1413433941351</v>
+        <v>63.39315547865066</v>
       </c>
       <c r="R3">
-        <v>5887.272090547216</v>
+        <v>570.538399307856</v>
       </c>
       <c r="S3">
-        <v>0.2495900308347687</v>
+        <v>0.02505018480965436</v>
       </c>
       <c r="T3">
-        <v>0.2495900308347687</v>
+        <v>0.02505018480965435</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,14 +643,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.439664333333333</v>
+        <v>0.6240709999999999</v>
       </c>
       <c r="H4">
-        <v>19.318993</v>
+        <v>1.872213</v>
       </c>
       <c r="I4">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="J4">
-        <v>0.8861484385177248</v>
+        <v>0.07908544873752882</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>914.6048496477138</v>
+        <v>88.63480044604266</v>
       </c>
       <c r="R4">
-        <v>8231.443646829424</v>
+        <v>797.713204014384</v>
       </c>
       <c r="S4">
-        <v>0.3489708377714635</v>
+        <v>0.03502457189543048</v>
       </c>
       <c r="T4">
-        <v>0.3489708377714635</v>
+        <v>0.03502457189543048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8273623333333333</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H5">
-        <v>2.482087</v>
+        <v>19.318993</v>
       </c>
       <c r="I5">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="J5">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>96.83826274766032</v>
+        <v>496.4306538833345</v>
       </c>
       <c r="R5">
-        <v>871.544364728943</v>
+        <v>4467.875884950011</v>
       </c>
       <c r="S5">
-        <v>0.03694899463128885</v>
+        <v>0.1961675441308981</v>
       </c>
       <c r="T5">
-        <v>0.03694899463128885</v>
+        <v>0.1961675441308981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8273623333333333</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H6">
-        <v>2.482087</v>
+        <v>19.318993</v>
       </c>
       <c r="I6">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="J6">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
-        <v>84.04349670819377</v>
+        <v>654.1413433941352</v>
       </c>
       <c r="R6">
-        <v>756.391470373744</v>
+        <v>5887.272090547217</v>
       </c>
       <c r="S6">
-        <v>0.03206710468110727</v>
+        <v>0.2584878670249694</v>
       </c>
       <c r="T6">
-        <v>0.03206710468110727</v>
+        <v>0.2584878670249693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +829,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8273623333333333</v>
+        <v>6.439664333333334</v>
       </c>
       <c r="H7">
-        <v>2.482087</v>
+        <v>19.318993</v>
       </c>
       <c r="I7">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="J7">
-        <v>0.1138515614822752</v>
+        <v>0.8160669916094901</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
+        <v>914.6048496477139</v>
+      </c>
+      <c r="R7">
+        <v>8231.443646829426</v>
+      </c>
+      <c r="S7">
+        <v>0.3614115804536228</v>
+      </c>
+      <c r="T7">
+        <v>0.3614115804536228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8273623333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.482087</v>
+      </c>
+      <c r="I8">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="J8">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>77.08952333333333</v>
+      </c>
+      <c r="N8">
+        <v>231.26857</v>
+      </c>
+      <c r="O8">
+        <v>0.2403816673726824</v>
+      </c>
+      <c r="P8">
+        <v>0.2403816673726824</v>
+      </c>
+      <c r="Q8">
+        <v>63.78096790062111</v>
+      </c>
+      <c r="R8">
+        <v>574.02871110559</v>
+      </c>
+      <c r="S8">
+        <v>0.02520343120934038</v>
+      </c>
+      <c r="T8">
+        <v>0.02520343120934038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8273623333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.482087</v>
+      </c>
+      <c r="I9">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="J9">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>101.5800373333333</v>
+      </c>
+      <c r="N9">
+        <v>304.740112</v>
+      </c>
+      <c r="O9">
+        <v>0.3167483425780597</v>
+      </c>
+      <c r="P9">
+        <v>0.3167483425780597</v>
+      </c>
+      <c r="Q9">
+        <v>84.04349670819377</v>
+      </c>
+      <c r="R9">
+        <v>756.391470373744</v>
+      </c>
+      <c r="S9">
+        <v>0.03321029074343601</v>
+      </c>
+      <c r="T9">
+        <v>0.033210290743436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8273623333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.482087</v>
+      </c>
+      <c r="I10">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="J10">
+        <v>0.1048475596529811</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>142.0267893333333</v>
+      </c>
+      <c r="N10">
+        <v>426.080368</v>
+      </c>
+      <c r="O10">
+        <v>0.4428699900492579</v>
+      </c>
+      <c r="P10">
+        <v>0.4428699900492579</v>
+      </c>
+      <c r="Q10">
         <v>117.5076158186684</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>1057.568542368016</v>
       </c>
-      <c r="S7">
-        <v>0.04483546216987907</v>
-      </c>
-      <c r="T7">
-        <v>0.04483546216987907</v>
+      <c r="S10">
+        <v>0.04643383770020471</v>
+      </c>
+      <c r="T10">
+        <v>0.04643383770020471</v>
       </c>
     </row>
   </sheetData>
